--- a/results/mp/logistic/corona/confidence/42/desired-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="126">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,82 +40,82 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>sick</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
     <t>shame</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>cut</t>
@@ -124,27 +124,24 @@
     <t>empty</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>buying</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -154,220 +151,247 @@
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
     <t>are</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>for</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>!</t>
+    <t>at</t>
   </si>
   <si>
     <t>i</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>in</t>
+    <t>is</t>
   </si>
 </sst>
 </file>
@@ -725,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,10 +757,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -794,13 +818,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -812,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -844,13 +868,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -862,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L4">
         <v>56</v>
       </c>
-      <c r="K4">
-        <v>0.95</v>
-      </c>
-      <c r="L4">
-        <v>114</v>
-      </c>
       <c r="M4">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -886,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -894,13 +918,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9130434782608695</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -912,31 +936,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="L5">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>34</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="L5">
-        <v>56</v>
-      </c>
-      <c r="M5">
-        <v>56</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -944,13 +968,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8947368421052632</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -962,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -986,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -994,13 +1018,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8918918918918919</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1012,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1044,13 +1068,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8611111111111112</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1062,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1094,13 +1118,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8561643835616438</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C9">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1112,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9162303664921466</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>351</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1133,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1144,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8275862068965517</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
         <v>24</v>
@@ -1162,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10">
-        <v>0.9033942558746736</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L10">
-        <v>346</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>346</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1186,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1194,13 +1218,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8260869565217391</v>
+        <v>0.775</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1212,31 +1236,31 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>4</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11">
-        <v>0.8936170212765957</v>
-      </c>
-      <c r="L11">
-        <v>42</v>
-      </c>
-      <c r="M11">
-        <v>42</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1244,13 +1268,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1262,31 +1286,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="L12">
+        <v>41</v>
+      </c>
+      <c r="M12">
+        <v>41</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>6</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12">
-        <v>100</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1294,13 +1318,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.775</v>
+        <v>0.76</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1312,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13">
-        <v>0.890625</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1344,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7254901960784313</v>
+        <v>0.71875</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1362,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K14">
-        <v>0.8837209302325582</v>
+        <v>0.8671875</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1386,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1394,13 +1418,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6923076923076923</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1412,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K15">
-        <v>0.8625</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L15">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1436,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1444,13 +1468,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6841085271317829</v>
+        <v>0.6937984496124031</v>
       </c>
       <c r="C16">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D16">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1462,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K16">
-        <v>0.8584905660377359</v>
+        <v>0.85625</v>
       </c>
       <c r="L16">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="M16">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1486,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1494,13 +1518,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1512,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K17">
-        <v>0.8536585365853658</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1536,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1544,13 +1568,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6666666666666666</v>
+        <v>0.6878306878306878</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1562,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K18">
-        <v>0.852112676056338</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L18">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="M18">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1586,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1594,13 +1618,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6613756613756614</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C19">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1612,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K19">
-        <v>0.8448275862068966</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1636,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1644,13 +1668,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6451612903225806</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1662,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K20">
-        <v>0.825</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1686,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1694,13 +1718,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6440677966101694</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1712,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K21">
-        <v>0.8125</v>
+        <v>0.82</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1765,16 +1789,16 @@
         <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K22">
-        <v>0.8055555555555556</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1786,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1794,13 +1818,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6333333333333333</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1812,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K23">
         <v>0.8</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1836,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1844,13 +1868,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6216216216216216</v>
+        <v>0.6</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1862,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K24">
-        <v>0.7916666666666666</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1886,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1894,13 +1918,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5973154362416108</v>
+        <v>0.5944444444444444</v>
       </c>
       <c r="C25">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="D25">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1912,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K25">
-        <v>0.7857142857142857</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1936,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1944,13 +1968,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5861111111111111</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C26">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1962,19 +1986,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K26">
-        <v>0.7619047619047619</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L26">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1986,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1994,13 +2018,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5272727272727272</v>
+        <v>0.5503355704697986</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2012,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2036,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2044,13 +2068,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5178571428571429</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2062,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K28">
-        <v>0.7450980392156863</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2086,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2115,16 +2139,16 @@
         <v>27</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K29">
-        <v>0.7411764705882353</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="L29">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M29">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2136,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2144,13 +2168,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2162,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K30">
-        <v>0.7407407407407407</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2186,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2194,13 +2218,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.48</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2212,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K31">
-        <v>0.7220338983050848</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L31">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2236,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>82</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2244,13 +2268,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3968253968253968</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2262,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K32">
-        <v>0.717948717948718</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2286,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2294,7 +2318,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3896103896103896</v>
+        <v>0.375</v>
       </c>
       <c r="C33">
         <v>30</v>
@@ -2312,31 +2336,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K33">
-        <v>0.6974789915966386</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L33">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="M33">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2344,13 +2368,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.375</v>
+        <v>0.3531746031746032</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2362,19 +2386,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K34">
-        <v>0.6857142857142857</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L34">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2386,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2394,13 +2418,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2359249329758713</v>
+        <v>0.2734584450402145</v>
       </c>
       <c r="C35">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D35">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2412,31 +2436,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35">
+        <v>0.7040816326530612</v>
+      </c>
+      <c r="L35">
+        <v>207</v>
+      </c>
+      <c r="M35">
+        <v>208</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
         <v>87</v>
-      </c>
-      <c r="K35">
-        <v>0.68</v>
-      </c>
-      <c r="L35">
-        <v>34</v>
-      </c>
-      <c r="M35">
-        <v>34</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2444,13 +2468,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1366666666666667</v>
+        <v>0.17</v>
       </c>
       <c r="C36">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D36">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2462,19 +2486,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K36">
-        <v>0.6785714285714286</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2486,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2494,37 +2518,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0821917808219178</v>
+        <v>0.0346839546191248</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="E37">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="F37">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>268</v>
+        <v>2978</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K37">
-        <v>0.6702127659574468</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L37">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2536,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2544,13 +2568,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02483870967741935</v>
+        <v>0.03022452504317789</v>
       </c>
       <c r="C38">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="D38">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="E38">
         <v>0.08</v>
@@ -2562,19 +2586,19 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>3023</v>
+        <v>1123</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K38">
-        <v>0.6666666666666666</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2586,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2594,37 +2618,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01984469370146678</v>
+        <v>0.02883799830364716</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E39">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="F39">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1136</v>
+        <v>2290</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K39">
-        <v>0.6629213483146067</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L39">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2636,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2644,37 +2668,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.015625</v>
+        <v>0.02402260951483749</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E40">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="F40">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>2331</v>
+        <v>2072</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K40">
-        <v>0.6307692307692307</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2694,37 +2718,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01516360734237829</v>
+        <v>0.02218278615794144</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E41">
-        <v>0.65</v>
+        <v>0.34</v>
       </c>
       <c r="F41">
-        <v>0.35</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1234</v>
+        <v>1102</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K41">
-        <v>0.6222222222222222</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L41">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2736,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2744,49 +2768,49 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.01359649122807018</v>
+        <v>0.01837060702875399</v>
       </c>
       <c r="C42">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D42">
         <v>60</v>
       </c>
       <c r="E42">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="F42">
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>2249</v>
+        <v>1229</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K42">
-        <v>0.5714285714285714</v>
+        <v>0.65</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2794,49 +2818,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0134788189987163</v>
+        <v>0.01444833625218914</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E43">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
       <c r="F43">
-        <v>0.37</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1537</v>
+        <v>2251</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K43">
-        <v>0.5555555555555556</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L43">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2844,28 +2868,28 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01267605633802817</v>
+        <v>0.01319417093343836</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D44">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="E44">
-        <v>0.33</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F44">
-        <v>0.6699999999999999</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>2103</v>
+        <v>5011</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K44">
         <v>0.543859649122807</v>
@@ -2894,37 +2918,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.01098901098901099</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="C45">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E45">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="F45">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>4230</v>
+        <v>2360</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K45">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="L45">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M45">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2936,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2944,37 +2968,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01037217815741306</v>
+        <v>0.01172607879924953</v>
       </c>
       <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46">
         <v>51</v>
       </c>
-      <c r="D46">
-        <v>130</v>
-      </c>
       <c r="E46">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="F46">
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>4866</v>
+        <v>2107</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K46">
-        <v>0.4487179487179487</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2986,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2994,37 +3018,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.008051846032992929</v>
+        <v>0.01148886283704572</v>
       </c>
       <c r="C47">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D47">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E47">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F47">
-        <v>0.36</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>5051</v>
+        <v>4216</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K47">
-        <v>0.4426229508196721</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3036,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3044,89 +3068,137 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.007296466973886329</v>
+        <v>0.01138442772921325</v>
       </c>
       <c r="C48">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D48">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="E48">
-        <v>0.78</v>
+        <v>0.58</v>
       </c>
       <c r="F48">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>2585</v>
+        <v>4863</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K48">
-        <v>0.423728813559322</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L48">
+        <v>27</v>
+      </c>
+      <c r="M48">
+        <v>27</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.01041264944080216</v>
+      </c>
+      <c r="C49">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>107</v>
+      </c>
+      <c r="E49">
+        <v>0.75</v>
+      </c>
+      <c r="F49">
+        <v>0.25</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>2566</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K49">
+        <v>0.390625</v>
+      </c>
+      <c r="L49">
         <v>25</v>
       </c>
-      <c r="M48">
+      <c r="M49">
         <v>25</v>
       </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K49">
-        <v>0.2429906542056075</v>
-      </c>
-      <c r="L49">
-        <v>26</v>
-      </c>
-      <c r="M49">
-        <v>28</v>
-      </c>
       <c r="N49">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.007381258023106547</v>
+      </c>
+      <c r="C50">
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <v>108</v>
+      </c>
+      <c r="E50">
+        <v>0.79</v>
+      </c>
+      <c r="F50">
+        <v>0.21</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>3093</v>
+      </c>
       <c r="J50" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K50">
-        <v>0.2258064516129032</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L50">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3138,579 +3210,865 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="J51" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K51">
-        <v>0.1830985915492958</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="L51">
         <v>26</v>
       </c>
       <c r="M51">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N51">
+        <v>0.87</v>
+      </c>
+      <c r="O51">
+        <v>0.13</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="J52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K52">
+        <v>0.2096774193548387</v>
+      </c>
+      <c r="L52">
+        <v>26</v>
+      </c>
+      <c r="M52">
+        <v>26</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="J53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K53">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="L53">
+        <v>30</v>
+      </c>
+      <c r="M53">
+        <v>30</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="J54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K54">
+        <v>0.1234567901234568</v>
+      </c>
+      <c r="L54">
+        <v>20</v>
+      </c>
+      <c r="M54">
+        <v>21</v>
+      </c>
+      <c r="N54">
+        <v>0.95</v>
+      </c>
+      <c r="O54">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K55">
+        <v>0.1104651162790698</v>
+      </c>
+      <c r="L55">
+        <v>19</v>
+      </c>
+      <c r="M55">
+        <v>19</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K56">
+        <v>0.0895397489539749</v>
+      </c>
+      <c r="L56">
+        <v>107</v>
+      </c>
+      <c r="M56">
+        <v>112</v>
+      </c>
+      <c r="N56">
         <v>0.96</v>
       </c>
-      <c r="O51">
+      <c r="O56">
         <v>0.04000000000000004</v>
       </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K57">
+        <v>0.08441558441558442</v>
+      </c>
+      <c r="L57">
+        <v>26</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K58">
+        <v>0.07449856733524356</v>
+      </c>
+      <c r="L58">
+        <v>26</v>
+      </c>
+      <c r="M58">
+        <v>26</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K59">
+        <v>0.06954436450839328</v>
+      </c>
+      <c r="L59">
+        <v>29</v>
+      </c>
+      <c r="M59">
+        <v>30</v>
+      </c>
+      <c r="N59">
+        <v>0.97</v>
+      </c>
+      <c r="O59">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K60">
+        <v>0.06920415224913495</v>
+      </c>
+      <c r="L60">
+        <v>20</v>
+      </c>
+      <c r="M60">
+        <v>20</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K61">
+        <v>0.0625</v>
+      </c>
+      <c r="L61">
+        <v>26</v>
+      </c>
+      <c r="M61">
+        <v>26</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K52">
-        <v>0.1297297297297297</v>
-      </c>
-      <c r="L52">
-        <v>24</v>
-      </c>
-      <c r="M52">
-        <v>24</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K53">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="L53">
-        <v>21</v>
-      </c>
-      <c r="M53">
-        <v>21</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K54">
-        <v>0.06746987951807229</v>
-      </c>
-      <c r="L54">
-        <v>28</v>
-      </c>
-      <c r="M54">
-        <v>29</v>
-      </c>
-      <c r="N54">
+      <c r="K62">
+        <v>0.06227106227106227</v>
+      </c>
+      <c r="L62">
+        <v>34</v>
+      </c>
+      <c r="M62">
+        <v>35</v>
+      </c>
+      <c r="N62">
         <v>0.97</v>
       </c>
-      <c r="O54">
+      <c r="O62">
         <v>0.03000000000000003</v>
       </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K55">
-        <v>0.0659025787965616</v>
-      </c>
-      <c r="L55">
-        <v>23</v>
-      </c>
-      <c r="M55">
-        <v>23</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K56">
-        <v>0.06270903010033445</v>
-      </c>
-      <c r="L56">
-        <v>75</v>
-      </c>
-      <c r="M56">
-        <v>79</v>
-      </c>
-      <c r="N56">
-        <v>0.95</v>
-      </c>
-      <c r="O56">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K57">
-        <v>0.05677655677655678</v>
-      </c>
-      <c r="L57">
-        <v>31</v>
-      </c>
-      <c r="M57">
-        <v>32</v>
-      </c>
-      <c r="N57">
-        <v>0.97</v>
-      </c>
-      <c r="O57">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K58">
-        <v>0.03421461897356143</v>
-      </c>
-      <c r="L58">
-        <v>22</v>
-      </c>
-      <c r="M58">
-        <v>29</v>
-      </c>
-      <c r="N58">
-        <v>0.76</v>
-      </c>
-      <c r="O58">
-        <v>0.24</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K59">
-        <v>0.03015075376884422</v>
-      </c>
-      <c r="L59">
-        <v>24</v>
-      </c>
-      <c r="M59">
-        <v>29</v>
-      </c>
-      <c r="N59">
-        <v>0.83</v>
-      </c>
-      <c r="O59">
-        <v>0.17</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K60">
-        <v>0.02919937205651491</v>
-      </c>
-      <c r="L60">
-        <v>93</v>
-      </c>
-      <c r="M60">
-        <v>109</v>
-      </c>
-      <c r="N60">
-        <v>0.85</v>
-      </c>
-      <c r="O60">
-        <v>0.15</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>3092</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K61">
-        <v>0.02834645669291339</v>
-      </c>
-      <c r="L61">
-        <v>36</v>
-      </c>
-      <c r="M61">
-        <v>55</v>
-      </c>
-      <c r="N61">
-        <v>0.65</v>
-      </c>
-      <c r="O61">
-        <v>0.35</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K62">
-        <v>0.02644964394710071</v>
-      </c>
-      <c r="L62">
-        <v>26</v>
-      </c>
-      <c r="M62">
-        <v>32</v>
-      </c>
-      <c r="N62">
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K63">
+        <v>0.0390015600624025</v>
+      </c>
+      <c r="L63">
+        <v>25</v>
+      </c>
+      <c r="M63">
+        <v>34</v>
+      </c>
+      <c r="N63">
+        <v>0.74</v>
+      </c>
+      <c r="O63">
+        <v>0.26</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="J64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K64">
+        <v>0.03465851172273191</v>
+      </c>
+      <c r="L64">
+        <v>34</v>
+      </c>
+      <c r="M64">
+        <v>42</v>
+      </c>
+      <c r="N64">
         <v>0.8100000000000001</v>
       </c>
-      <c r="O62">
+      <c r="O64">
         <v>0.1899999999999999</v>
       </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K63">
-        <v>0.02599849284099472</v>
-      </c>
-      <c r="L63">
-        <v>69</v>
-      </c>
-      <c r="M63">
-        <v>88</v>
-      </c>
-      <c r="N63">
-        <v>0.78</v>
-      </c>
-      <c r="O63">
-        <v>0.22</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
-      <c r="J64" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K64">
-        <v>0.02504816955684008</v>
-      </c>
-      <c r="L64">
-        <v>26</v>
-      </c>
-      <c r="M64">
-        <v>28</v>
-      </c>
-      <c r="N64">
-        <v>0.93</v>
-      </c>
-      <c r="O64">
-        <v>0.06999999999999995</v>
-      </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1012</v>
+        <v>947</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K65">
-        <v>0.02388797364085667</v>
+        <v>0.03262233375156838</v>
       </c>
       <c r="L65">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="M65">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N65">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="O65">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>2370</v>
+        <v>771</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="K66">
-        <v>0.02288620470438652</v>
+        <v>0.03131991051454139</v>
       </c>
       <c r="L66">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M66">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="N66">
-        <v>0.63</v>
+        <v>0.8</v>
       </c>
       <c r="O66">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1537</v>
+        <v>866</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="K67">
-        <v>0.019279128248114</v>
+        <v>0.03023431594860166</v>
       </c>
       <c r="L67">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="M67">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="N67">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="O67">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>2340</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>0.01597573306370071</v>
+        <v>0.02922590837282781</v>
       </c>
       <c r="L68">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="M68">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="N68">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="O68">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>4866</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K69">
-        <v>0.01424668227946916</v>
+        <v>0.02674638137193203</v>
       </c>
       <c r="L69">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M69">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N69">
-        <v>0.64</v>
+        <v>0.79</v>
       </c>
       <c r="O69">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>5051</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="K70">
-        <v>0.01273046532045654</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="L70">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M70">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N70">
-        <v>0.48</v>
+        <v>0.87</v>
       </c>
       <c r="O70">
-        <v>0.52</v>
+        <v>0.13</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>2249</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="K71">
-        <v>0.01191310441485634</v>
+        <v>0.02346227013316424</v>
       </c>
       <c r="L71">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M71">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="N71">
-        <v>0.52</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O71">
-        <v>0.48</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>4230</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="K72">
-        <v>0.01027557216254087</v>
+        <v>0.02277432712215321</v>
       </c>
       <c r="L72">
+        <v>55</v>
+      </c>
+      <c r="M72">
+        <v>85</v>
+      </c>
+      <c r="N72">
+        <v>0.65</v>
+      </c>
+      <c r="O72">
+        <v>0.35</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K73">
+        <v>0.02183908045977011</v>
+      </c>
+      <c r="L73">
+        <v>19</v>
+      </c>
+      <c r="M73">
+        <v>27</v>
+      </c>
+      <c r="N73">
+        <v>0.7</v>
+      </c>
+      <c r="O73">
+        <v>0.3</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K74">
+        <v>0.02023121387283237</v>
+      </c>
+      <c r="L74">
+        <v>21</v>
+      </c>
+      <c r="M74">
+        <v>23</v>
+      </c>
+      <c r="N74">
+        <v>0.91</v>
+      </c>
+      <c r="O74">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K75">
+        <v>0.01706551588858376</v>
+      </c>
+      <c r="L75">
+        <v>87</v>
+      </c>
+      <c r="M75">
+        <v>154</v>
+      </c>
+      <c r="N75">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O75">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K76">
+        <v>0.01558704453441296</v>
+      </c>
+      <c r="L76">
+        <v>77</v>
+      </c>
+      <c r="M76">
+        <v>133</v>
+      </c>
+      <c r="N76">
+        <v>0.58</v>
+      </c>
+      <c r="O76">
+        <v>0.42</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>4863</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K77">
+        <v>0.01472306613694789</v>
+      </c>
+      <c r="L77">
+        <v>63</v>
+      </c>
+      <c r="M77">
+        <v>112</v>
+      </c>
+      <c r="N77">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O77">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K78">
+        <v>0.01412639405204461</v>
+      </c>
+      <c r="L78">
+        <v>19</v>
+      </c>
+      <c r="M78">
+        <v>37</v>
+      </c>
+      <c r="N78">
+        <v>0.51</v>
+      </c>
+      <c r="O78">
+        <v>0.49</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K79">
+        <v>0.01218940459446789</v>
+      </c>
+      <c r="L79">
+        <v>26</v>
+      </c>
+      <c r="M79">
+        <v>51</v>
+      </c>
+      <c r="N79">
+        <v>0.51</v>
+      </c>
+      <c r="O79">
+        <v>0.49</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K80">
+        <v>0.01098418277680141</v>
+      </c>
+      <c r="L80">
+        <v>25</v>
+      </c>
+      <c r="M80">
+        <v>58</v>
+      </c>
+      <c r="N80">
+        <v>0.43</v>
+      </c>
+      <c r="O80">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K81">
+        <v>0.009560229445506692</v>
+      </c>
+      <c r="L81">
+        <v>20</v>
+      </c>
+      <c r="M81">
+        <v>71</v>
+      </c>
+      <c r="N81">
+        <v>0.28</v>
+      </c>
+      <c r="O81">
+        <v>0.72</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K82">
+        <v>0.009086975335352661</v>
+      </c>
+      <c r="L82">
+        <v>21</v>
+      </c>
+      <c r="M82">
+        <v>89</v>
+      </c>
+      <c r="N82">
+        <v>0.24</v>
+      </c>
+      <c r="O82">
+        <v>0.76</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K83">
+        <v>0.007333333333333333</v>
+      </c>
+      <c r="L83">
         <v>22</v>
       </c>
-      <c r="M72">
-        <v>39</v>
-      </c>
-      <c r="N72">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O72">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>2119</v>
+      <c r="M83">
+        <v>129</v>
+      </c>
+      <c r="N83">
+        <v>0.17</v>
+      </c>
+      <c r="O83">
+        <v>0.83</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>2978</v>
       </c>
     </row>
   </sheetData>
